--- a/Trading/global_setting/config_product.xlsx
+++ b/Trading/global_setting/config_product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="12585" windowHeight="11145"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="product_detail" sheetId="1" r:id="rId1"/>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1473,7 +1473,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>

--- a/Trading/global_setting/config_product.xlsx
+++ b/Trading/global_setting/config_product.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
   <si>
     <t>product_name</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>fm03_zzA500_HB</t>
-  </si>
-  <si>
-    <t>a3_top5</t>
   </si>
 </sst>
 </file>
@@ -827,6 +824,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1470,13 +1474,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.8333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
@@ -1495,15 +1499,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Trading/global_setting/config_product.xlsx
+++ b/Trading/global_setting/config_product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Trading\global_setting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2CD7B8-2960-4B4A-82C4-32CF883364DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7E011-DA62-4DEB-9A3D-70A6DC33F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11835" yWindow="3765" windowWidth="57600" windowHeight="15345" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product_detail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>product_name</t>
   </si>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t>combine_zz500_HB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>score_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,8 +765,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,8 +927,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,8 +938,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>16</v>
+      <c r="A1" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>

--- a/Trading/global_setting/config_product.xlsx
+++ b/Trading/global_setting/config_product.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new\Trading\global_setting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\config\trading_config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B7E011-DA62-4DEB-9A3D-70A6DC33F131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2CD7B8-2960-4B4A-82C4-32CF883364DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="3765" windowWidth="57600" windowHeight="15345" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product_detail" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>product_name</t>
   </si>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>combine_zz500_HB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>score_name</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +520,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,8 +761,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,8 +923,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -938,8 +934,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>40</v>
+      <c r="A1" t="s">
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>17</v>
